--- a/Planning and Design/CST-247 Burndown Chart.xlsx
+++ b/Planning and Design/CST-247 Burndown Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poker\Documents\CST-247\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243460EE-7FA5-4636-8F71-ED25CDF811FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EB6CDE-4C33-4E87-AA01-D2AD38DD0FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,16 +679,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -827,28 +827,28 @@
                   <c:v>47.77272727272728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.863636363636374</c:v>
+                  <c:v>38.863636363636374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.954545454545467</c:v>
+                  <c:v>30.954545454545467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0454545454545592</c:v>
+                  <c:v>22.045454545454561</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.8636363636363491</c:v>
+                  <c:v>11.136363636363653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21.772727272727259</c:v>
+                  <c:v>-2.7727272727272556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-35.681818181818166</c:v>
+                  <c:v>-16.681818181818166</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-49.590909090909072</c:v>
+                  <c:v>-30.590909090909072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-63.499999999999979</c:v>
+                  <c:v>-44.499999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,7 +2146,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="21">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" s="20">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="22">
         <v>0</v>
@@ -2822,19 +2822,19 @@
       </c>
       <c r="F20" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" si="2"/>
@@ -2875,35 +2875,35 @@
       </c>
       <c r="F21" s="6">
         <f t="shared" si="3"/>
-        <v>33.863636363636374</v>
+        <v>38.863636363636374</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="3"/>
-        <v>19.954545454545467</v>
+        <v>30.954545454545467</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="3"/>
-        <v>6.0454545454545592</v>
+        <v>22.045454545454561</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="3"/>
-        <v>-7.8636363636363491</v>
+        <v>11.136363636363653</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
-        <v>-21.772727272727259</v>
+        <v>-2.7727272727272556</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="3"/>
-        <v>-35.681818181818166</v>
+        <v>-16.681818181818166</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="3"/>
-        <v>-49.590909090909072</v>
+        <v>-30.590909090909072</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="3"/>
-        <v>-63.499999999999979</v>
+        <v>-44.499999999999979</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
